--- a/bricodepot_productos_detalle.xlsx
+++ b/bricodepot_productos_detalle.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Camero\Documents\Python Scripts\proyecto_ceramica\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Camero\Documents\ceramica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E74F08CD-8328-4475-82DF-F600B81C69F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E2C3D76-A415-4265-8854-9FF59C864521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3372" uniqueCount="790">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3396" uniqueCount="791">
   <si>
     <t>URL</t>
   </si>
@@ -2392,13 +2392,16 @@
   </si>
   <si>
     <t>8429991798888</t>
+  </si>
+  <si>
+    <t>https://www.bricodepot.es/pavimento-selva-haya-mate-23x120cm-rectificado-8435609380802?queryID=62febf63217c77105c40f91b6557ff6b&amp;objectID=513403&amp;indexName=pro_ES_products</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2410,6 +2413,14 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2444,16 +2455,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2754,10 +2768,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AJ146"/>
+  <dimension ref="A1:AJ147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="A136" sqref="A136:XFD136"/>
+    <sheetView tabSelected="1" topLeftCell="B124" workbookViewId="0">
+      <selection activeCell="E149" sqref="E149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13183,7 +13197,87 @@
         <v>681</v>
       </c>
     </row>
+    <row r="147" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A147" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="B147" t="s">
+        <v>503</v>
+      </c>
+      <c r="D147">
+        <v>8435609380802</v>
+      </c>
+      <c r="E147" t="s">
+        <v>247</v>
+      </c>
+      <c r="F147" t="s">
+        <v>392</v>
+      </c>
+      <c r="G147" t="s">
+        <v>392</v>
+      </c>
+      <c r="H147" t="s">
+        <v>390</v>
+      </c>
+      <c r="I147" t="s">
+        <v>428</v>
+      </c>
+      <c r="J147" t="s">
+        <v>499</v>
+      </c>
+      <c r="K147" t="s">
+        <v>111</v>
+      </c>
+      <c r="M147" t="s">
+        <v>152</v>
+      </c>
+      <c r="P147" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q147" t="s">
+        <v>505</v>
+      </c>
+      <c r="R147" t="s">
+        <v>152</v>
+      </c>
+      <c r="S147" t="s">
+        <v>247</v>
+      </c>
+      <c r="T147" t="s">
+        <v>52</v>
+      </c>
+      <c r="U147" t="s">
+        <v>506</v>
+      </c>
+      <c r="V147" t="s">
+        <v>152</v>
+      </c>
+      <c r="X147" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y147" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA147" t="s">
+        <v>247</v>
+      </c>
+      <c r="AD147" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE147" t="s">
+        <v>230</v>
+      </c>
+      <c r="AH147" t="s">
+        <v>522</v>
+      </c>
+      <c r="AI147" t="s">
+        <v>161</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A147" r:id="rId1" xr:uid="{30EAF1F4-6A97-4104-B37D-FB43CCC795D6}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>